--- a/3_Test_Scenarios/Test_Case_Scenarios.xlsx
+++ b/3_Test_Scenarios/Test_Case_Scenarios.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\service-marketplace-manual-qa\3_Test_Scenarios\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5435C4C0-B7A4-4259-9DF8-C0F0477831D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,308 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="98">
+  <si>
+    <t>Scenario ID</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Scenario Description</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>TS_01</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Verify user can register using valid email and mobile number</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Core flow</t>
+  </si>
+  <si>
+    <t>TS_02</t>
+  </si>
+  <si>
+    <t>Verify error message when email format is invalid</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>TS_03</t>
+  </si>
+  <si>
+    <t>Verify registration fails when OTP is incorrect</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>TS_04</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Verify user can login with valid credentials</t>
+  </si>
+  <si>
+    <t>TS_05</t>
+  </si>
+  <si>
+    <t>Verify error message for invalid password</t>
+  </si>
+  <si>
+    <t>Negative case</t>
+  </si>
+  <si>
+    <t>TS_06</t>
+  </si>
+  <si>
+    <t>Verify account lock behavior after multiple failed login attempts</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Risk-based</t>
+  </si>
+  <si>
+    <t>TS_07</t>
+  </si>
+  <si>
+    <t>Service Discovery</t>
+  </si>
+  <si>
+    <t>Verify user can view list of available service categories</t>
+  </si>
+  <si>
+    <t>Core UI</t>
+  </si>
+  <si>
+    <t>TS_08</t>
+  </si>
+  <si>
+    <t>Verify search results based on selected location</t>
+  </si>
+  <si>
+    <t>Business logic</t>
+  </si>
+  <si>
+    <t>TS_09</t>
+  </si>
+  <si>
+    <t>Verify filtering services by price range</t>
+  </si>
+  <si>
+    <t>Filter logic</t>
+  </si>
+  <si>
+    <t>TS_10</t>
+  </si>
+  <si>
+    <t>Verify service details page displays correct information</t>
+  </si>
+  <si>
+    <t>Data accuracy</t>
+  </si>
+  <si>
+    <t>TS_11</t>
+  </si>
+  <si>
+    <t>Booking</t>
+  </si>
+  <si>
+    <t>Verify user can select service date and time slot</t>
+  </si>
+  <si>
+    <t>TS_12</t>
+  </si>
+  <si>
+    <t>Verify booking fails when selected slot is unavailable</t>
+  </si>
+  <si>
+    <t>Edge case</t>
+  </si>
+  <si>
+    <t>TS_13</t>
+  </si>
+  <si>
+    <t>Verify booking confirmation message after successful booking</t>
+  </si>
+  <si>
+    <t>User feedback</t>
+  </si>
+  <si>
+    <t>TS_14</t>
+  </si>
+  <si>
+    <t>Verify booking details are saved in order history</t>
+  </si>
+  <si>
+    <t>Data consistency</t>
+  </si>
+  <si>
+    <t>TS_15</t>
+  </si>
+  <si>
+    <t>Verify behavior when user exits booking flow mid-way</t>
+  </si>
+  <si>
+    <t>Usability</t>
+  </si>
+  <si>
+    <t>TS_16</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Verify payment success flow using mock payment option</t>
+  </si>
+  <si>
+    <t>TS_17</t>
+  </si>
+  <si>
+    <t>Verify error message on payment failure</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>TS_18</t>
+  </si>
+  <si>
+    <t>Verify sensitive payment details are masked</t>
+  </si>
+  <si>
+    <t>TS_19</t>
+  </si>
+  <si>
+    <t>Verify order is not created if payment fails</t>
+  </si>
+  <si>
+    <t>Business rule</t>
+  </si>
+  <si>
+    <t>TS_20</t>
+  </si>
+  <si>
+    <t>Order Management</t>
+  </si>
+  <si>
+    <t>Verify user can view current and past orders</t>
+  </si>
+  <si>
+    <t>TS_21</t>
+  </si>
+  <si>
+    <t>Verify user can cancel order before service start time</t>
+  </si>
+  <si>
+    <t>TS_22</t>
+  </si>
+  <si>
+    <t>Verify user cannot cancel order after service start</t>
+  </si>
+  <si>
+    <t>Rule validation</t>
+  </si>
+  <si>
+    <t>TS_23</t>
+  </si>
+  <si>
+    <t>Verify order status updates correctly</t>
+  </si>
+  <si>
+    <t>Data sync</t>
+  </si>
+  <si>
+    <t>TS_24</t>
+  </si>
+  <si>
+    <t>Ratings</t>
+  </si>
+  <si>
+    <t>Verify user can rate service after completion</t>
+  </si>
+  <si>
+    <t>TS_25</t>
+  </si>
+  <si>
+    <t>Verify rating cannot be submitted before service completion</t>
+  </si>
+  <si>
+    <t>TS_26</t>
+  </si>
+  <si>
+    <t>Verify feedback character limit validation</t>
+  </si>
+  <si>
+    <t>Boundary</t>
+  </si>
+  <si>
+    <t>TS_27</t>
+  </si>
+  <si>
+    <t>Verify average rating updates correctly</t>
+  </si>
+  <si>
+    <t>Calculation</t>
+  </si>
+  <si>
+    <t>TS_28</t>
+  </si>
+  <si>
+    <t>Notifications</t>
+  </si>
+  <si>
+    <t>Verify booking confirmation notification is received</t>
+  </si>
+  <si>
+    <t>User trust</t>
+  </si>
+  <si>
+    <t>TS_29</t>
+  </si>
+  <si>
+    <t>Verify cancellation notification is received</t>
+  </si>
+  <si>
+    <t>Flow dependent</t>
+  </si>
+  <si>
+    <t>TS_30</t>
+  </si>
+  <si>
+    <t>Verify reminder notification before scheduled service</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Enhancement</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +333,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +369,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +671,551 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/3_Test_Scenarios/Test_Case_Scenarios.xlsx
+++ b/3_Test_Scenarios/Test_Case_Scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\service-marketplace-manual-qa\3_Test_Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5435C4C0-B7A4-4259-9DF8-C0F0477831D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B968C1B4-C9C2-4326-B5F3-87CBF756CE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -325,7 +325,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,6 +336,14 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -385,15 +393,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -675,7 +686,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,7 +716,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1215,7 +1226,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{6A2F9B15-70CD-4D98-93ED-1CA849C754F4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>